--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -82,6 +82,20 @@
     <t>不明</t>
     <rPh sb="0" eb="2">
       <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝</t>
+    <rPh sb="0" eb="1">
+      <t>シュク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -137,7 +151,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,30 +160,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkHorizontal">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -298,6 +300,17 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -309,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,9 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,12 +359,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,14 +401,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,45 +742,57 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="14">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="12">
         <v>36526.516365740739</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>36526</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>36526</v>
       </c>
+      <c r="H3" s="15">
+        <v>36527</v>
+      </c>
+      <c r="I3" s="16">
+        <v>36528</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -765,34 +805,39 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="1">
         <v>36526</v>
       </c>
+      <c r="H4" s="14">
+        <v>36527</v>
+      </c>
+      <c r="I4" s="13">
+        <v>36528</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>36526</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>36526</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>36526</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>36526</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="22"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -383,6 +383,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,15 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +731,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
@@ -758,27 +763,27 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="7">
@@ -792,7 +797,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -805,7 +810,7 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="1">
         <v>36526</v>
       </c>
